--- a/assets_work/table.xlsx
+++ b/assets_work/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20_Development\10_github\zipide_hp\assets_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1576330-43EC-4DC1-BC80-0EC5F7F8D530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C038FA-7C02-4570-9A67-2DB71C957FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="4185" windowWidth="22785" windowHeight="14340" xr2:uid="{3C1AAC1B-A1B8-474B-B631-290B6419B3EE}"/>
+    <workbookView xWindow="1035" yWindow="750" windowWidth="22785" windowHeight="14340" xr2:uid="{3C1AAC1B-A1B8-474B-B631-290B6419B3EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Windows</t>
     <phoneticPr fontId="1"/>
@@ -78,12 +78,34 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>DDR4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDR5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規格</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール速度</t>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +150,31 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3D7195"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -189,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +256,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -263,6 +325,76 @@
         <a:xfrm>
           <a:off x="1215886" y="378929"/>
           <a:ext cx="4298675" cy="2469046"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F1A641-9FD1-4353-91AF-BF7B96FB3F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="342900"/>
+          <a:ext cx="3857211" cy="2505075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -605,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA85277-5079-4BB3-A26D-AFD38270943D}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I22" activeCellId="1" sqref="J19 I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -616,17 +748,26 @@
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
@@ -637,8 +778,20 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -651,8 +804,21 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I4" s="1"/>
+      <c r="J4" s="9" t="str">
+        <f>K4&amp;"-"&amp;L4</f>
+        <v>DDR4-2400</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2400</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -661,8 +827,21 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I5" s="1"/>
+      <c r="J5" s="9" t="str">
+        <f t="shared" ref="J5:J11" si="0">K5&amp;"-"&amp;L5</f>
+        <v>DDR4-2666</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2666</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -671,8 +850,21 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I6" s="1"/>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>DDR4-2933</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2933</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -681,8 +873,21 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I7" s="1"/>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>DDR4-3200</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3200</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -693,8 +898,21 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I8" s="1"/>
+      <c r="J8" s="10" t="str">
+        <f>K8&amp;"-"&amp;L8</f>
+        <v>DDR5-3600</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3600</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -703,8 +921,21 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I9" s="1"/>
+      <c r="J9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DDR5-4800</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="11">
+        <v>4800</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -713,8 +944,21 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I10" s="1"/>
+      <c r="J10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DDR5-5200</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="11">
+        <v>5200</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -723,32 +967,63 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I11" s="1"/>
+      <c r="J11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>DDR5-5600</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="11">
+        <v>5600</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -756,7 +1031,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
